--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Mcam.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N2">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O2">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P2">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q2">
-        <v>419.8158538664533</v>
+        <v>1048.131943941871</v>
       </c>
       <c r="R2">
-        <v>3778.34268479808</v>
+        <v>9433.187495476841</v>
       </c>
       <c r="S2">
-        <v>0.5043997112265908</v>
+        <v>0.6618438332212244</v>
       </c>
       <c r="T2">
-        <v>0.5043997112265909</v>
+        <v>0.6618438332212244</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,13 +620,13 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N3">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P3">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q3">
         <v>26.97407024084222</v>
@@ -635,10 +635,10 @@
         <v>242.76663216758</v>
       </c>
       <c r="S3">
-        <v>0.03240876473525146</v>
+        <v>0.0170328002585595</v>
       </c>
       <c r="T3">
-        <v>0.03240876473525146</v>
+        <v>0.0170328002585595</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N4">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O4">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P4">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q4">
-        <v>355.9875909778955</v>
+        <v>457.4320419143967</v>
       </c>
       <c r="R4">
-        <v>3203.88831880106</v>
+        <v>4116.888377229569</v>
       </c>
       <c r="S4">
-        <v>0.4277114273693429</v>
+        <v>0.2888458631651307</v>
       </c>
       <c r="T4">
-        <v>0.4277114273693431</v>
+        <v>0.2888458631651306</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N5">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O5">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P5">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q5">
-        <v>5.484321769946666</v>
+        <v>5.363364543145555</v>
       </c>
       <c r="R5">
-        <v>49.35889592952</v>
+        <v>48.27028088830999</v>
       </c>
       <c r="S5">
-        <v>0.006589294547972889</v>
+        <v>0.003386701234243768</v>
       </c>
       <c r="T5">
-        <v>0.00658929454797289</v>
+        <v>0.003386701234243768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.234432</v>
+        <v>100.4511693333333</v>
       </c>
       <c r="N6">
-        <v>120.703296</v>
+        <v>301.353508</v>
       </c>
       <c r="O6">
-        <v>0.5194057602668868</v>
+        <v>0.6815338940941451</v>
       </c>
       <c r="P6">
-        <v>0.5194057602668868</v>
+        <v>0.681533894094145</v>
       </c>
       <c r="Q6">
-        <v>12.489652850304</v>
+        <v>31.182252886792</v>
       </c>
       <c r="R6">
-        <v>112.406875652736</v>
+        <v>280.640275981128</v>
       </c>
       <c r="S6">
-        <v>0.01500604904029592</v>
+        <v>0.01969006087292057</v>
       </c>
       <c r="T6">
-        <v>0.01500604904029592</v>
+        <v>0.01969006087292057</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -868,25 +868,25 @@
         <v>2.585148666666667</v>
       </c>
       <c r="N7">
-        <v>7.755445999999999</v>
+        <v>7.755446</v>
       </c>
       <c r="O7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="P7">
-        <v>0.03337293561427507</v>
+        <v>0.01753953138921768</v>
       </c>
       <c r="Q7">
         <v>0.8024870194039999</v>
       </c>
       <c r="R7">
-        <v>7.222383174635999</v>
+        <v>7.222383174636</v>
       </c>
       <c r="S7">
-        <v>0.0009641708790236088</v>
+        <v>0.000506731130658178</v>
       </c>
       <c r="T7">
-        <v>0.0009641708790236089</v>
+        <v>0.000506731130658178</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.11724066666667</v>
+        <v>43.839503</v>
       </c>
       <c r="N8">
-        <v>102.351722</v>
+        <v>131.518509</v>
       </c>
       <c r="O8">
-        <v>0.4404359759988248</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="P8">
-        <v>0.4404359759988249</v>
+        <v>0.2974391178622877</v>
       </c>
       <c r="Q8">
-        <v>10.590742082228</v>
+        <v>13.608746200266</v>
       </c>
       <c r="R8">
-        <v>95.316678740052</v>
+        <v>122.478715802394</v>
       </c>
       <c r="S8">
-        <v>0.01272454862948179</v>
+        <v>0.008593254697157039</v>
       </c>
       <c r="T8">
-        <v>0.0127245486294818</v>
+        <v>0.008593254697157039</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.525608</v>
+        <v>0.5140156666666666</v>
       </c>
       <c r="N9">
-        <v>1.576824</v>
+        <v>1.542047</v>
       </c>
       <c r="O9">
-        <v>0.006785328120013172</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="P9">
-        <v>0.006785328120013173</v>
+        <v>0.003487456654349595</v>
       </c>
       <c r="Q9">
-        <v>0.163160286576</v>
+        <v>0.159561771278</v>
       </c>
       <c r="R9">
-        <v>1.468442579184</v>
+        <v>1.436055941502</v>
       </c>
       <c r="S9">
-        <v>0.0001960335720402828</v>
+        <v>0.0001007554201058265</v>
       </c>
       <c r="T9">
-        <v>0.0001960335720402828</v>
+        <v>0.0001007554201058265</v>
       </c>
     </row>
   </sheetData>
